--- a/Assets/stocks.xlsx
+++ b/Assets/stocks.xlsx
@@ -431,35 +431,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">卖五-- </t>
+          <t xml:space="preserve">卖五44.048 </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>卖四--</t>
+          <t>卖四44.024</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>卖三--</t>
+          <t>卖三44.0150</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>卖二--</t>
+          <t>卖二44.00746</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>卖一--</t>
+          <t>卖一43.9950</t>
         </is>
       </c>
     </row>
@@ -473,35 +473,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>买一42.785.202万</t>
+          <t>买一43.98193</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>买二42.77267</t>
+          <t>买二43.97183</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>买三42.76414</t>
+          <t>买三43.96440</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>买四42.7585</t>
+          <t>买四43.95948</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>买五42.7458</t>
+          <t>买五43.94862</t>
         </is>
       </c>
     </row>

--- a/Assets/stocks.xlsx
+++ b/Assets/stocks.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,86 +434,116 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>恒为科技</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>卖五 28.76</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>卖四 28.75</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>卖三 28.74</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>卖二 28.73</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>卖一 28.72</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>买一 28.71</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>买二 28.70</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>买三 28.69</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>买四 28.68</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>买五 28.67</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">卖五44.048 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>卖四44.024</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>卖三44.0150</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>卖二44.00746</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>卖一43.9950</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>DK点自动提示涨跌信号！</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>买一43.98193</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>买二43.97183</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>买三43.96440</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>买四43.95948</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>买五43.94862</t>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2646</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6128</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1243</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>3477</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2023-11-30 11:22:25</t>
         </is>
       </c>
     </row>
